--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H2">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I2">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J2">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06287633333333333</v>
+        <v>0.2637386666666666</v>
       </c>
       <c r="N2">
-        <v>0.188629</v>
+        <v>0.7912159999999999</v>
       </c>
       <c r="O2">
-        <v>0.01674921743188729</v>
+        <v>0.0666283005899584</v>
       </c>
       <c r="P2">
-        <v>0.01674921743188729</v>
+        <v>0.06662830058995842</v>
       </c>
       <c r="Q2">
-        <v>0.4128956140936666</v>
+        <v>1.145669339324444</v>
       </c>
       <c r="R2">
-        <v>3.716060526843</v>
+        <v>10.31102405392</v>
       </c>
       <c r="S2">
-        <v>0.006086790532024457</v>
+        <v>0.017002431013692</v>
       </c>
       <c r="T2">
-        <v>0.006086790532024459</v>
+        <v>0.017002431013692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H3">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I3">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J3">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.336804000000001</v>
       </c>
       <c r="O3">
-        <v>0.8290568275022134</v>
+        <v>0.786252279354217</v>
       </c>
       <c r="P3">
-        <v>0.8290568275022134</v>
+        <v>0.786252279354217</v>
       </c>
       <c r="Q3">
-        <v>20.437607267452</v>
+        <v>13.51955732705333</v>
       </c>
       <c r="R3">
-        <v>183.938465407068</v>
+        <v>121.67601594348</v>
       </c>
       <c r="S3">
-        <v>0.301285434299965</v>
+        <v>0.2006384677488367</v>
       </c>
       <c r="T3">
-        <v>0.301285434299965</v>
+        <v>0.2006384677488367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H4">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I4">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J4">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.578842</v>
+        <v>0.580218</v>
       </c>
       <c r="N4">
-        <v>1.736526</v>
+        <v>1.740654</v>
       </c>
       <c r="O4">
-        <v>0.1541939550658993</v>
+        <v>0.1465804760458756</v>
       </c>
       <c r="P4">
-        <v>0.1541939550658993</v>
+        <v>0.1465804760458756</v>
       </c>
       <c r="Q4">
-        <v>3.801133278338</v>
+        <v>2.52044184922</v>
       </c>
       <c r="R4">
-        <v>34.210199505042</v>
+        <v>22.68397664298</v>
       </c>
       <c r="S4">
-        <v>0.0560352332643141</v>
+        <v>0.03740489266357992</v>
       </c>
       <c r="T4">
-        <v>0.05603523326431411</v>
+        <v>0.03740489266357992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.440526333333334</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H5">
-        <v>19.321579</v>
+        <v>13.03187</v>
       </c>
       <c r="I5">
-        <v>0.3564200560729107</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J5">
-        <v>0.3564200560729107</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06287633333333333</v>
+        <v>0.002133333333333333</v>
       </c>
       <c r="N5">
-        <v>0.188629</v>
+        <v>0.0064</v>
       </c>
       <c r="O5">
-        <v>0.01674921743188729</v>
+        <v>0.0005389440099489064</v>
       </c>
       <c r="P5">
-        <v>0.01674921743188729</v>
+        <v>0.0005389440099489064</v>
       </c>
       <c r="Q5">
-        <v>0.4049566805767777</v>
+        <v>0.009267107555555555</v>
       </c>
       <c r="R5">
-        <v>3.644610125191</v>
+        <v>0.08340396799999999</v>
       </c>
       <c r="S5">
-        <v>0.005969757016250641</v>
+        <v>0.0001375295222639947</v>
       </c>
       <c r="T5">
-        <v>0.005969757016250641</v>
+        <v>0.0001375295222639947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>19.321579</v>
       </c>
       <c r="I6">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J6">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.112268</v>
+        <v>0.2637386666666666</v>
       </c>
       <c r="N6">
-        <v>9.336804000000001</v>
+        <v>0.7912159999999999</v>
       </c>
       <c r="O6">
-        <v>0.8290568275022134</v>
+        <v>0.0666283005899584</v>
       </c>
       <c r="P6">
-        <v>0.8290568275022134</v>
+        <v>0.06662830058995842</v>
       </c>
       <c r="Q6">
-        <v>20.04464401039067</v>
+        <v>1.698615827784889</v>
       </c>
       <c r="R6">
-        <v>180.401796093516</v>
+        <v>15.287542450064</v>
       </c>
       <c r="S6">
-        <v>0.2954924809459684</v>
+        <v>0.02520849379429814</v>
       </c>
       <c r="T6">
-        <v>0.2954924809459684</v>
+        <v>0.02520849379429815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>19.321579</v>
       </c>
       <c r="I7">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J7">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.578842</v>
+        <v>3.112268</v>
       </c>
       <c r="N7">
-        <v>1.736526</v>
+        <v>9.336804000000001</v>
       </c>
       <c r="O7">
-        <v>0.1541939550658993</v>
+        <v>0.786252279354217</v>
       </c>
       <c r="P7">
-        <v>0.1541939550658993</v>
+        <v>0.786252279354217</v>
       </c>
       <c r="Q7">
-        <v>3.728047143839333</v>
+        <v>20.04464401039067</v>
       </c>
       <c r="R7">
-        <v>33.552424294554</v>
+        <v>180.401796093516</v>
       </c>
       <c r="S7">
-        <v>0.05495781811069168</v>
+        <v>0.2974747296472495</v>
       </c>
       <c r="T7">
-        <v>0.05495781811069169</v>
+        <v>0.2974747296472495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.216374</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H8">
-        <v>0.6491220000000001</v>
+        <v>19.321579</v>
       </c>
       <c r="I8">
-        <v>0.01197418180150597</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J8">
-        <v>0.01197418180150597</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06287633333333333</v>
+        <v>0.580218</v>
       </c>
       <c r="N8">
-        <v>0.188629</v>
+        <v>1.740654</v>
       </c>
       <c r="O8">
-        <v>0.01674921743188729</v>
+        <v>0.1465804760458756</v>
       </c>
       <c r="P8">
-        <v>0.01674921743188729</v>
+        <v>0.1465804760458756</v>
       </c>
       <c r="Q8">
-        <v>0.01360480374866667</v>
+        <v>3.736909308074</v>
       </c>
       <c r="R8">
-        <v>0.122443233738</v>
+        <v>33.632183772666</v>
       </c>
       <c r="S8">
-        <v>0.0002005581745623714</v>
+        <v>0.05545801090602345</v>
       </c>
       <c r="T8">
-        <v>0.0002005581745623714</v>
+        <v>0.05545801090602345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.216374</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H9">
-        <v>0.6491220000000001</v>
+        <v>19.321579</v>
       </c>
       <c r="I9">
-        <v>0.01197418180150597</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J9">
-        <v>0.01197418180150597</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.112268</v>
+        <v>0.002133333333333333</v>
       </c>
       <c r="N9">
-        <v>9.336804000000001</v>
+        <v>0.0064</v>
       </c>
       <c r="O9">
-        <v>0.8290568275022134</v>
+        <v>0.0005389440099489064</v>
       </c>
       <c r="P9">
-        <v>0.8290568275022134</v>
+        <v>0.0005389440099489064</v>
       </c>
       <c r="Q9">
-        <v>0.6734138762320002</v>
+        <v>0.01373978951111111</v>
       </c>
       <c r="R9">
-        <v>6.060724886088002</v>
+        <v>0.1236581056</v>
       </c>
       <c r="S9">
-        <v>0.00992727717629128</v>
+        <v>0.0002039068475403785</v>
       </c>
       <c r="T9">
-        <v>0.00992727717629128</v>
+        <v>0.0002039068475403785</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.216374</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H10">
-        <v>0.6491220000000001</v>
+        <v>1.048609</v>
       </c>
       <c r="I10">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J10">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.578842</v>
+        <v>0.2637386666666666</v>
       </c>
       <c r="N10">
-        <v>1.736526</v>
+        <v>0.7912159999999999</v>
       </c>
       <c r="O10">
-        <v>0.1541939550658993</v>
+        <v>0.0666283005899584</v>
       </c>
       <c r="P10">
-        <v>0.1541939550658993</v>
+        <v>0.06662830058995842</v>
       </c>
       <c r="Q10">
-        <v>0.125246358908</v>
+        <v>0.09218624650488889</v>
       </c>
       <c r="R10">
-        <v>1.127217230172</v>
+        <v>0.829676218544</v>
       </c>
       <c r="S10">
-        <v>0.00184634645065232</v>
+        <v>0.001368100064137884</v>
       </c>
       <c r="T10">
-        <v>0.001846346450652321</v>
+        <v>0.001368100064137884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.846355333333333</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H11">
-        <v>14.539066</v>
+        <v>1.048609</v>
       </c>
       <c r="I11">
-        <v>0.2681983040292798</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J11">
-        <v>0.2681983040292799</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06287633333333333</v>
+        <v>3.112268</v>
       </c>
       <c r="N11">
-        <v>0.188629</v>
+        <v>9.336804000000001</v>
       </c>
       <c r="O11">
-        <v>0.01674921743188729</v>
+        <v>0.786252279354217</v>
       </c>
       <c r="P11">
-        <v>0.01674921743188729</v>
+        <v>0.786252279354217</v>
       </c>
       <c r="Q11">
-        <v>0.3047210533904444</v>
+        <v>1.087850745070667</v>
       </c>
       <c r="R11">
-        <v>2.742489480514</v>
+        <v>9.790656705636001</v>
       </c>
       <c r="S11">
-        <v>0.004492111709049821</v>
+        <v>0.01614436784802488</v>
       </c>
       <c r="T11">
-        <v>0.004492111709049822</v>
+        <v>0.01614436784802488</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.846355333333333</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H12">
-        <v>14.539066</v>
+        <v>1.048609</v>
       </c>
       <c r="I12">
-        <v>0.2681983040292798</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J12">
-        <v>0.2681983040292799</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.112268</v>
+        <v>0.580218</v>
       </c>
       <c r="N12">
-        <v>9.336804000000001</v>
+        <v>1.740654</v>
       </c>
       <c r="O12">
-        <v>0.8290568275022134</v>
+        <v>0.1465804760458756</v>
       </c>
       <c r="P12">
-        <v>0.8290568275022134</v>
+        <v>0.1465804760458756</v>
       </c>
       <c r="Q12">
-        <v>15.08315662056267</v>
+        <v>0.202807272254</v>
       </c>
       <c r="R12">
-        <v>135.748409585064</v>
+        <v>1.825265450286</v>
       </c>
       <c r="S12">
-        <v>0.2223516350799888</v>
+        <v>0.003009783483956169</v>
       </c>
       <c r="T12">
-        <v>0.2223516350799889</v>
+        <v>0.003009783483956169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3495363333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.048609</v>
+      </c>
+      <c r="I13">
+        <v>0.02053331770470026</v>
+      </c>
+      <c r="J13">
+        <v>0.02053331770470026</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.002133333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.0064</v>
+      </c>
+      <c r="O13">
+        <v>0.0005389440099489064</v>
+      </c>
+      <c r="P13">
+        <v>0.0005389440099489064</v>
+      </c>
+      <c r="Q13">
+        <v>0.0007456775111111113</v>
+      </c>
+      <c r="R13">
+        <v>0.006711097600000001</v>
+      </c>
+      <c r="S13">
+        <v>1.106630858132603E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.106630858132603E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.888867</v>
+      </c>
+      <c r="H14">
+        <v>17.666601</v>
+      </c>
+      <c r="I14">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="J14">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2637386666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.7912159999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.0666283005899584</v>
+      </c>
+      <c r="P14">
+        <v>0.06662830058995842</v>
+      </c>
+      <c r="Q14">
+        <v>1.553121930757333</v>
+      </c>
+      <c r="R14">
+        <v>13.978097376816</v>
+      </c>
+      <c r="S14">
+        <v>0.02304927571783038</v>
+      </c>
+      <c r="T14">
+        <v>0.02304927571783038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.888867</v>
+      </c>
+      <c r="H15">
+        <v>17.666601</v>
+      </c>
+      <c r="I15">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="J15">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.112268</v>
+      </c>
+      <c r="N15">
+        <v>9.336804000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.786252279354217</v>
+      </c>
+      <c r="P15">
+        <v>0.786252279354217</v>
+      </c>
+      <c r="Q15">
+        <v>18.327732320356</v>
+      </c>
+      <c r="R15">
+        <v>164.949590883204</v>
+      </c>
+      <c r="S15">
+        <v>0.271994714110106</v>
+      </c>
+      <c r="T15">
+        <v>0.271994714110106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.846355333333333</v>
-      </c>
-      <c r="H13">
-        <v>14.539066</v>
-      </c>
-      <c r="I13">
-        <v>0.2681983040292798</v>
-      </c>
-      <c r="J13">
-        <v>0.2681983040292799</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.578842</v>
-      </c>
-      <c r="N13">
-        <v>1.736526</v>
-      </c>
-      <c r="O13">
-        <v>0.1541939550658993</v>
-      </c>
-      <c r="P13">
-        <v>0.1541939550658993</v>
-      </c>
-      <c r="Q13">
-        <v>2.805274013857333</v>
-      </c>
-      <c r="R13">
-        <v>25.247466124716</v>
-      </c>
-      <c r="S13">
-        <v>0.04135455724024115</v>
-      </c>
-      <c r="T13">
-        <v>0.04135455724024117</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.888867</v>
+      </c>
+      <c r="H16">
+        <v>17.666601</v>
+      </c>
+      <c r="I16">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="J16">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.580218</v>
+      </c>
+      <c r="N16">
+        <v>1.740654</v>
+      </c>
+      <c r="O16">
+        <v>0.1465804760458756</v>
+      </c>
+      <c r="P16">
+        <v>0.1465804760458756</v>
+      </c>
+      <c r="Q16">
+        <v>3.416826633006</v>
+      </c>
+      <c r="R16">
+        <v>30.751439697054</v>
+      </c>
+      <c r="S16">
+        <v>0.05070778899231604</v>
+      </c>
+      <c r="T16">
+        <v>0.05070778899231604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.888867</v>
+      </c>
+      <c r="H17">
+        <v>17.666601</v>
+      </c>
+      <c r="I17">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="J17">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.002133333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.0064</v>
+      </c>
+      <c r="O17">
+        <v>0.0005389440099489064</v>
+      </c>
+      <c r="P17">
+        <v>0.0005389440099489064</v>
+      </c>
+      <c r="Q17">
+        <v>0.01256291626666667</v>
+      </c>
+      <c r="R17">
+        <v>0.1130662464</v>
+      </c>
+      <c r="S17">
+        <v>0.0001864413315632071</v>
+      </c>
+      <c r="T17">
+        <v>0.0001864413315632071</v>
       </c>
     </row>
   </sheetData>
